--- a/output_hour_saleonly.xlsx
+++ b/output_hour_saleonly.xlsx
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>18672.22299999996</v>
+        <v>18512.22299999997</v>
       </c>
       <c r="B2" t="n">
         <v>3254.825000000011</v>
